--- a/dashboard_loader/health_edwait_uploader/health_edwait.xlsx
+++ b/dashboard_loader/health_edwait_uploader/health_edwait.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t xml:space="preserve">Waiting times for emergency hospital care</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">2015-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na</t>
   </si>
   <si>
     <t xml:space="preserve">2016-17</t>
@@ -231,7 +228,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -245,14 +242,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -309,7 +298,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -430,44 +419,42 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>61</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -530,73 +517,73 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="9" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="11" t="n">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7"/>
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11" t="s">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="B9" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
